--- a/Diabetes patients.xlsx
+++ b/Diabetes patients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>IgM</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Hb A1C(Normalized)</t>
   </si>
 </sst>
 </file>
@@ -366,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +408,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8.52</v>
       </c>
@@ -437,8 +443,12 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>IF(D2&lt;6,0,IF(D2&lt;7.3,1,IF(D2&lt;9.1,2,3)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9.6300000000000008</v>
       </c>
@@ -469,8 +479,12 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K31" si="0">IF(D3&lt;6,0,IF(D3&lt;7.3,1,IF(D3&lt;9.1,2,3)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15.66</v>
       </c>
@@ -501,8 +515,12 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.39</v>
       </c>
@@ -533,8 +551,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.5199999999999996</v>
       </c>
@@ -565,8 +587,12 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31.43</v>
       </c>
@@ -597,8 +623,12 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30.99</v>
       </c>
@@ -629,8 +659,12 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14.33</v>
       </c>
@@ -661,8 +695,12 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19.059999999999999</v>
       </c>
@@ -693,8 +731,12 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>26.3</v>
       </c>
@@ -725,8 +767,12 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.3800000000000008</v>
       </c>
@@ -757,8 +803,12 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.1500000000000004</v>
       </c>
@@ -789,8 +839,12 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29.99</v>
       </c>
@@ -821,8 +875,12 @@
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.17</v>
       </c>
@@ -853,8 +911,12 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34.31</v>
       </c>
@@ -885,8 +947,12 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.25</v>
       </c>
@@ -917,8 +983,12 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.13</v>
       </c>
@@ -949,8 +1019,12 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15.9</v>
       </c>
@@ -981,8 +1055,12 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21.92</v>
       </c>
@@ -1013,8 +1091,12 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12.18</v>
       </c>
@@ -1045,8 +1127,12 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11.3</v>
       </c>
@@ -1077,8 +1163,12 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9.5</v>
       </c>
@@ -1109,8 +1199,12 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.1</v>
       </c>
@@ -1141,8 +1235,12 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.8</v>
       </c>
@@ -1173,8 +1271,12 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9.6999999999999993</v>
       </c>
@@ -1205,8 +1307,12 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.5</v>
       </c>
@@ -1237,8 +1343,12 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.66</v>
       </c>
@@ -1269,8 +1379,12 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8.52</v>
       </c>
@@ -1301,8 +1415,12 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.3</v>
       </c>
@@ -1333,8 +1451,12 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.81</v>
       </c>
@@ -1364,6 +1486,10 @@
       </c>
       <c r="J31">
         <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
